--- a/debtchecking/TemplateFile/template.xlsx
+++ b/debtchecking/TemplateFile/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOGJA\SKBF\Source Code\edisweb\debtchecking\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63B94D-BCEE-4EB7-8B8A-A639025193CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A160CFE-1898-4F61-B84D-8CEE2CE926CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{502649AF-9EC9-476A-A048-41000DCD0846}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{502649AF-9EC9-476A-A048-41000DCD0846}"/>
   </bookViews>
   <sheets>
     <sheet name="SLIK" sheetId="1" r:id="rId1"/>
@@ -10226,8 +10226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1005E8CB-A649-4733-AF1C-9C08982D3EF3}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10242,7 +10242,7 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.28515625" style="13" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.42578125" customWidth="1"/>
+    <col min="11" max="11" width="42.42578125" style="13" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.42578125" style="13" customWidth="1"/>
@@ -10391,7 +10391,6 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="13"/>
@@ -10399,7 +10398,6 @@
       <c r="AD3" s="16"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="P4" s="3"/>
       <c r="AD4" s="16"/>
@@ -10930,9 +10928,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C299106-51B9-43B3-B16C-E34A7B6CBF17}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10940,12 +10938,12 @@
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10988,417 +10986,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E82" s="3"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E86" s="3"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E93" s="3"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E94" s="3"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="3"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E97" s="3"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E98" s="3"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E99" s="3"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor Tidak Boleh Sama" sqref="A1:B1" xr:uid="{4DF7B447-0F80-4DA8-8210-3C2EC0A3FA37}">
       <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor KTP/Akta Tidak Valid" sqref="E2:E101 H2" xr:uid="{A5A75F42-7C36-4FAA-A00D-5F83A86EADD5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor KTP/Akta Tidak Valid" sqref="E2:E101" xr:uid="{A5A75F42-7C36-4FAA-A00D-5F83A86EADD5}">
       <formula1>15</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor NPWP Tidak Valid!" sqref="H3:H101" xr:uid="{2CBA3CB9-1FD6-40D4-AB54-3924AC9EF280}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor NPWP Tidak Valid" sqref="H2:H102" xr:uid="{69849208-FF89-4A2D-91F7-F684C40EB9E5}">
       <formula1>15</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/debtchecking/TemplateFile/template.xlsx
+++ b/debtchecking/TemplateFile/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOGJA\SKBF\Source Code\edisweb\debtchecking\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC60F3-F9D7-4FE2-8E37-992E9B6562F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4AB3C-89F8-4938-8035-5FEC51D185DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{502649AF-9EC9-476A-A048-41000DCD0846}"/>
   </bookViews>
@@ -12010,10 +12010,10 @@
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12387,42 +12387,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-    </row>
-    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12519,721 +12519,813 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="AD3" s="21"/>
+      <c r="AB3" s="20"/>
+      <c r="AD3" s="20"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="AD4" s="21"/>
+      <c r="AB4" s="20"/>
+      <c r="AD4" s="20"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L5" s="2"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
-      <c r="AD5" s="21"/>
+      <c r="AB5" s="20"/>
+      <c r="AD5" s="20"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L6" s="2"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="AD6" s="21"/>
+      <c r="AB6" s="20"/>
+      <c r="AD6" s="20"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="AD7" s="21"/>
+      <c r="AB7" s="20"/>
+      <c r="AD7" s="20"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L8" s="2"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="AD8" s="21"/>
+      <c r="AB8" s="20"/>
+      <c r="AD8" s="20"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="AD9" s="21"/>
+      <c r="AB9" s="20"/>
+      <c r="AD9" s="20"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L10" s="2"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="AD10" s="21"/>
+      <c r="AB10" s="20"/>
+      <c r="AD10" s="20"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-      <c r="AD11" s="21"/>
+      <c r="AB11" s="20"/>
+      <c r="AD11" s="20"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
-      <c r="AD12" s="21"/>
+      <c r="AB12" s="20"/>
+      <c r="AD12" s="20"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L13" s="2"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-      <c r="AD13" s="21"/>
+      <c r="AB13" s="20"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="AD14" s="21"/>
+      <c r="AB14" s="20"/>
+      <c r="AD14" s="20"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="AD15" s="21"/>
+      <c r="AB15" s="20"/>
+      <c r="AD15" s="20"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="L16" s="2"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="AD16" s="21"/>
+      <c r="AB16" s="20"/>
+      <c r="AD16" s="20"/>
     </row>
     <row r="17" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="AD17" s="21"/>
+      <c r="AB17" s="20"/>
+      <c r="AD17" s="20"/>
     </row>
     <row r="18" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L18" s="2"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="AD18" s="21"/>
+      <c r="AB18" s="20"/>
+      <c r="AD18" s="20"/>
     </row>
     <row r="19" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L19" s="2"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="AD19" s="21"/>
+      <c r="AB19" s="20"/>
+      <c r="AD19" s="20"/>
     </row>
     <row r="20" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L20" s="2"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="AD20" s="21"/>
+      <c r="AB20" s="20"/>
+      <c r="AD20" s="20"/>
     </row>
     <row r="21" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L21" s="2"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="AD21" s="21"/>
+      <c r="AB21" s="20"/>
+      <c r="AD21" s="20"/>
     </row>
     <row r="22" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L22" s="2"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-      <c r="AD22" s="21"/>
+      <c r="AB22" s="20"/>
+      <c r="AD22" s="20"/>
     </row>
     <row r="23" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L23" s="2"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="AD23" s="21"/>
+      <c r="AB23" s="20"/>
+      <c r="AD23" s="20"/>
     </row>
     <row r="24" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L24" s="2"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-      <c r="AD24" s="21"/>
+      <c r="AB24" s="20"/>
+      <c r="AD24" s="20"/>
     </row>
     <row r="25" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L25" s="2"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="AD25" s="21"/>
+      <c r="AB25" s="20"/>
+      <c r="AD25" s="20"/>
     </row>
     <row r="26" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L26" s="2"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
-      <c r="AD26" s="21"/>
+      <c r="AB26" s="20"/>
+      <c r="AD26" s="20"/>
     </row>
     <row r="27" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L27" s="2"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="AD27" s="21"/>
+      <c r="AB27" s="20"/>
+      <c r="AD27" s="20"/>
     </row>
     <row r="28" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L28" s="2"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
-      <c r="AD28" s="21"/>
+      <c r="AB28" s="20"/>
+      <c r="AD28" s="20"/>
     </row>
     <row r="29" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L29" s="2"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="AD29" s="21"/>
+      <c r="AB29" s="20"/>
+      <c r="AD29" s="20"/>
     </row>
     <row r="30" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L30" s="2"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
-      <c r="AD30" s="21"/>
+      <c r="AB30" s="20"/>
+      <c r="AD30" s="20"/>
     </row>
     <row r="31" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L31" s="2"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-      <c r="AD31" s="21"/>
+      <c r="AB31" s="20"/>
+      <c r="AD31" s="20"/>
     </row>
     <row r="32" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L32" s="2"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-      <c r="AD32" s="21"/>
+      <c r="AB32" s="20"/>
+      <c r="AD32" s="20"/>
     </row>
     <row r="33" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L33" s="2"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-      <c r="AD33" s="21"/>
+      <c r="AB33" s="20"/>
+      <c r="AD33" s="20"/>
     </row>
     <row r="34" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L34" s="2"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-      <c r="AD34" s="21"/>
+      <c r="AB34" s="20"/>
+      <c r="AD34" s="20"/>
     </row>
     <row r="35" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L35" s="2"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="AD35" s="21"/>
+      <c r="AB35" s="20"/>
+      <c r="AD35" s="20"/>
     </row>
     <row r="36" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L36" s="2"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-      <c r="AD36" s="21"/>
+      <c r="AB36" s="20"/>
+      <c r="AD36" s="20"/>
     </row>
     <row r="37" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L37" s="2"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-      <c r="AD37" s="21"/>
+      <c r="AB37" s="20"/>
+      <c r="AD37" s="20"/>
     </row>
     <row r="38" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L38" s="2"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-      <c r="AD38" s="21"/>
+      <c r="AB38" s="20"/>
+      <c r="AD38" s="20"/>
     </row>
     <row r="39" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L39" s="2"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="AD39" s="21"/>
+      <c r="AB39" s="20"/>
+      <c r="AD39" s="20"/>
     </row>
     <row r="40" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L40" s="2"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-      <c r="AD40" s="21"/>
+      <c r="AB40" s="20"/>
+      <c r="AD40" s="20"/>
     </row>
     <row r="41" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L41" s="2"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-      <c r="AD41" s="21"/>
+      <c r="AB41" s="20"/>
+      <c r="AD41" s="20"/>
     </row>
     <row r="42" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L42" s="2"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
-      <c r="AD42" s="21"/>
+      <c r="AB42" s="20"/>
+      <c r="AD42" s="20"/>
     </row>
     <row r="43" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L43" s="2"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-      <c r="AD43" s="21"/>
+      <c r="AB43" s="20"/>
+      <c r="AD43" s="20"/>
     </row>
     <row r="44" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L44" s="2"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
-      <c r="AD44" s="21"/>
+      <c r="AB44" s="20"/>
+      <c r="AD44" s="20"/>
     </row>
     <row r="45" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L45" s="2"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
-      <c r="AD45" s="21"/>
+      <c r="AB45" s="20"/>
+      <c r="AD45" s="20"/>
     </row>
     <row r="46" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L46" s="2"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
-      <c r="AD46" s="21"/>
+      <c r="AB46" s="20"/>
+      <c r="AD46" s="20"/>
     </row>
     <row r="47" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L47" s="2"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
-      <c r="AD47" s="21"/>
+      <c r="AB47" s="20"/>
+      <c r="AD47" s="20"/>
     </row>
     <row r="48" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L48" s="2"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-      <c r="AD48" s="21"/>
+      <c r="AB48" s="20"/>
+      <c r="AD48" s="20"/>
     </row>
     <row r="49" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L49" s="2"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-      <c r="AD49" s="21"/>
+      <c r="AB49" s="20"/>
+      <c r="AD49" s="20"/>
     </row>
     <row r="50" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L50" s="2"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-      <c r="AD50" s="21"/>
+      <c r="AB50" s="20"/>
+      <c r="AD50" s="20"/>
     </row>
     <row r="51" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L51" s="2"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
-      <c r="AD51" s="21"/>
+      <c r="AB51" s="20"/>
+      <c r="AD51" s="20"/>
     </row>
     <row r="52" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L52" s="2"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
-      <c r="AD52" s="21"/>
+      <c r="AB52" s="20"/>
+      <c r="AD52" s="20"/>
     </row>
     <row r="53" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L53" s="2"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
-      <c r="AD53" s="21"/>
+      <c r="AB53" s="20"/>
+      <c r="AD53" s="20"/>
     </row>
     <row r="54" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L54" s="2"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
-      <c r="AD54" s="21"/>
+      <c r="AB54" s="20"/>
+      <c r="AD54" s="20"/>
     </row>
     <row r="55" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L55" s="2"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
-      <c r="AD55" s="21"/>
+      <c r="AB55" s="20"/>
+      <c r="AD55" s="20"/>
     </row>
     <row r="56" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L56" s="2"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
-      <c r="AD56" s="21"/>
+      <c r="AB56" s="20"/>
+      <c r="AD56" s="20"/>
     </row>
     <row r="57" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L57" s="2"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
-      <c r="AD57" s="21"/>
+      <c r="AB57" s="20"/>
+      <c r="AD57" s="20"/>
     </row>
     <row r="58" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L58" s="2"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
-      <c r="AD58" s="21"/>
+      <c r="AB58" s="20"/>
+      <c r="AD58" s="20"/>
     </row>
     <row r="59" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L59" s="2"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-      <c r="AD59" s="21"/>
+      <c r="AB59" s="20"/>
+      <c r="AD59" s="20"/>
     </row>
     <row r="60" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L60" s="2"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="AD60" s="21"/>
+      <c r="AB60" s="20"/>
+      <c r="AD60" s="20"/>
     </row>
     <row r="61" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L61" s="2"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
-      <c r="AD61" s="21"/>
+      <c r="AB61" s="20"/>
+      <c r="AD61" s="20"/>
     </row>
     <row r="62" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L62" s="2"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
-      <c r="AD62" s="21"/>
+      <c r="AB62" s="20"/>
+      <c r="AD62" s="20"/>
     </row>
     <row r="63" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
-      <c r="AD63" s="21"/>
+      <c r="AB63" s="20"/>
+      <c r="AD63" s="20"/>
     </row>
     <row r="64" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L64" s="2"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
-      <c r="AD64" s="21"/>
+      <c r="AB64" s="20"/>
+      <c r="AD64" s="20"/>
     </row>
     <row r="65" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L65" s="2"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
-      <c r="AD65" s="21"/>
+      <c r="AB65" s="20"/>
+      <c r="AD65" s="20"/>
     </row>
     <row r="66" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L66" s="2"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
-      <c r="AD66" s="21"/>
+      <c r="AB66" s="20"/>
+      <c r="AD66" s="20"/>
     </row>
     <row r="67" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L67" s="2"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
-      <c r="AD67" s="21"/>
+      <c r="AB67" s="20"/>
+      <c r="AD67" s="20"/>
     </row>
     <row r="68" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L68" s="2"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
-      <c r="AD68" s="21"/>
+      <c r="AB68" s="20"/>
+      <c r="AD68" s="20"/>
     </row>
     <row r="69" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L69" s="2"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
-      <c r="AD69" s="21"/>
+      <c r="AB69" s="20"/>
+      <c r="AD69" s="20"/>
     </row>
     <row r="70" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L70" s="2"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
-      <c r="AD70" s="21"/>
+      <c r="AB70" s="20"/>
+      <c r="AD70" s="20"/>
     </row>
     <row r="71" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L71" s="2"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
-      <c r="AD71" s="21"/>
+      <c r="AB71" s="20"/>
+      <c r="AD71" s="20"/>
     </row>
     <row r="72" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L72" s="2"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
-      <c r="AD72" s="21"/>
+      <c r="AB72" s="20"/>
+      <c r="AD72" s="20"/>
     </row>
     <row r="73" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L73" s="2"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
-      <c r="AD73" s="21"/>
+      <c r="AB73" s="20"/>
+      <c r="AD73" s="20"/>
     </row>
     <row r="74" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L74" s="2"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
-      <c r="AD74" s="21"/>
+      <c r="AB74" s="20"/>
+      <c r="AD74" s="20"/>
     </row>
     <row r="75" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L75" s="2"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
-      <c r="AD75" s="21"/>
+      <c r="AB75" s="20"/>
+      <c r="AD75" s="20"/>
     </row>
     <row r="76" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L76" s="2"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
-      <c r="AD76" s="21"/>
+      <c r="AB76" s="20"/>
+      <c r="AD76" s="20"/>
     </row>
     <row r="77" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L77" s="2"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
-      <c r="AD77" s="21"/>
+      <c r="AB77" s="20"/>
+      <c r="AD77" s="20"/>
     </row>
     <row r="78" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L78" s="2"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
-      <c r="AD78" s="21"/>
+      <c r="AB78" s="20"/>
+      <c r="AD78" s="20"/>
     </row>
     <row r="79" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L79" s="2"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
-      <c r="AD79" s="21"/>
+      <c r="AB79" s="20"/>
+      <c r="AD79" s="20"/>
     </row>
     <row r="80" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L80" s="2"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
-      <c r="AD80" s="21"/>
+      <c r="AB80" s="20"/>
+      <c r="AD80" s="20"/>
     </row>
     <row r="81" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L81" s="2"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
-      <c r="AD81" s="21"/>
+      <c r="AB81" s="20"/>
+      <c r="AD81" s="20"/>
     </row>
     <row r="82" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L82" s="2"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
-      <c r="AD82" s="21"/>
+      <c r="AB82" s="20"/>
+      <c r="AD82" s="20"/>
     </row>
     <row r="83" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L83" s="2"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
-      <c r="AD83" s="21"/>
+      <c r="AB83" s="20"/>
+      <c r="AD83" s="20"/>
     </row>
     <row r="84" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L84" s="2"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
-      <c r="AD84" s="21"/>
+      <c r="AB84" s="20"/>
+      <c r="AD84" s="20"/>
     </row>
     <row r="85" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L85" s="2"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
-      <c r="AD85" s="21"/>
+      <c r="AB85" s="20"/>
+      <c r="AD85" s="20"/>
     </row>
     <row r="86" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L86" s="2"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
-      <c r="AD86" s="21"/>
+      <c r="AB86" s="20"/>
+      <c r="AD86" s="20"/>
     </row>
     <row r="87" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L87" s="2"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
-      <c r="AD87" s="21"/>
+      <c r="AB87" s="20"/>
+      <c r="AD87" s="20"/>
     </row>
     <row r="88" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L88" s="2"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
-      <c r="AD88" s="21"/>
+      <c r="AB88" s="20"/>
+      <c r="AD88" s="20"/>
     </row>
     <row r="89" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L89" s="2"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
-      <c r="AD89" s="21"/>
+      <c r="AB89" s="20"/>
+      <c r="AD89" s="20"/>
     </row>
     <row r="90" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L90" s="2"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
-      <c r="AD90" s="21"/>
+      <c r="AB90" s="20"/>
+      <c r="AD90" s="20"/>
     </row>
     <row r="91" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L91" s="2"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
-      <c r="AD91" s="21"/>
+      <c r="AB91" s="20"/>
+      <c r="AD91" s="20"/>
     </row>
     <row r="92" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L92" s="2"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
-      <c r="AD92" s="21"/>
+      <c r="AB92" s="20"/>
+      <c r="AD92" s="20"/>
     </row>
     <row r="93" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L93" s="2"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
-      <c r="AD93" s="21"/>
+      <c r="AB93" s="20"/>
+      <c r="AD93" s="20"/>
     </row>
     <row r="94" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L94" s="2"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
-      <c r="AD94" s="21"/>
+      <c r="AB94" s="20"/>
+      <c r="AD94" s="20"/>
     </row>
     <row r="95" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L95" s="2"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
-      <c r="AD95" s="21"/>
+      <c r="AB95" s="20"/>
+      <c r="AD95" s="20"/>
     </row>
     <row r="96" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L96" s="2"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
-      <c r="AD96" s="21"/>
+      <c r="AB96" s="20"/>
+      <c r="AD96" s="20"/>
     </row>
     <row r="97" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L97" s="2"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
-      <c r="AD97" s="21"/>
+      <c r="AB97" s="20"/>
+      <c r="AD97" s="20"/>
     </row>
     <row r="98" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L98" s="2"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
-      <c r="AD98" s="21"/>
+      <c r="AB98" s="20"/>
+      <c r="AD98" s="20"/>
     </row>
     <row r="99" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L99" s="2"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
-      <c r="AD99" s="21"/>
+      <c r="AB99" s="20"/>
+      <c r="AD99" s="20"/>
     </row>
     <row r="100" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L100" s="2"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
-      <c r="AD100" s="21"/>
+      <c r="AB100" s="20"/>
+      <c r="AD100" s="20"/>
     </row>
     <row r="101" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L101" s="2"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="13"/>
       <c r="R101" s="13"/>
-      <c r="AD101" s="21"/>
+      <c r="AB101" s="20"/>
+      <c r="AD101" s="20"/>
     </row>
     <row r="102" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L102" s="2"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
-      <c r="AD102" s="21"/>
+      <c r="AB102" s="20"/>
+      <c r="AD102" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="S1:AD1"/>
     <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <dataValidations count="7">
+  <dataValidations count="5">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor Tidak Boleh Sama" sqref="B2 A2:A102" xr:uid="{E037585C-4FFE-44DB-AD96-83521B072D2D}">
       <formula1>COUNTIF($A:$A,A2)=1</formula1>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor KTP/Akta Tidak Valid" sqref="I1:I1048576" xr:uid="{D67A3337-D70D-4724-920F-7F9CF3FF7498}">
       <formula1>15</formula1>
       <formula2>20</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Minimal 0 dan Maksimal 100" sqref="AD3:AD102" xr:uid="{A082D9CF-3B6B-4AE7-954C-C56F62326CF7}">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Minimal 0 dan Maksimal 100" sqref="AB3:AB102" xr:uid="{67BA91F5-EA2E-408D-90AA-AA6DAA6830A5}">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Nomor NPWP Tidak Valid!" sqref="O1:O1048576" xr:uid="{9E275C2B-6A6A-4A9A-ADDC-5EB41C9FE0AC}">
       <formula1>15</formula1>

--- a/debtchecking/TemplateFile/template.xlsx
+++ b/debtchecking/TemplateFile/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOGJA\SKBF\Source Code\edisweb\debtchecking\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4AB3C-89F8-4938-8035-5FEC51D185DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6722B8-7A0F-4603-B555-47B479A5E0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{502649AF-9EC9-476A-A048-41000DCD0846}"/>
   </bookViews>
@@ -12350,8 +12350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1005E8CB-A649-4733-AF1C-9C08982D3EF3}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView tabSelected="1" topLeftCell="S102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13344,7 +13344,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Jenis Customer Tidak Valid" xr:uid="{6170CF18-095C-46A9-AAA8-B91299D7722A}">
           <x14:formula1>
             <xm:f>Parameter!$T$4:$T$5</xm:f>
@@ -13387,24 +13387,6 @@
           </x14:formula1>
           <xm:sqref>L3:L102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C642411F-FD48-4B4A-AFB3-FC616FD91D87}">
-          <x14:formula1>
-            <xm:f>Parameter!$Y$4:$Y$301</xm:f>
-          </x14:formula1>
-          <xm:sqref>S3:S102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CDE81096-2A78-40B4-9840-0D4B135DC7F3}">
-          <x14:formula1>
-            <xm:f>Parameter!$AD$4:$AD$695</xm:f>
-          </x14:formula1>
-          <xm:sqref>T3:T102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DD393E4-7BD2-4149-96CE-162EC2A51912}">
-          <x14:formula1>
-            <xm:f>Parameter!$AH$4:$AH$52</xm:f>
-          </x14:formula1>
-          <xm:sqref>U3:U102</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58576EA0-D291-4D86-B346-B9355202BF99}">
           <x14:formula1>
             <xm:f>Parameter!$AT$4:$AT$16</xm:f>
@@ -13422,18 +13404,6 @@
             <xm:f>Parameter!$L$18:$L$19</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B8CD43B-115F-47A7-8D41-496804923E48}">
-          <x14:formula1>
-            <xm:f>Parameter!$AL$4:$AL$326</xm:f>
-          </x14:formula1>
-          <xm:sqref>V3:V102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A33C7813-5558-4ABE-857F-69776C3B049A}">
-          <x14:formula1>
-            <xm:f>Parameter!$AP$4:$AP$1716</xm:f>
-          </x14:formula1>
-          <xm:sqref>W3:W102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Peringatan" error="Tahun Tidak Valid" xr:uid="{04D2F5C2-1B04-4A3F-92D1-E4CFD442E83E}">
           <x14:formula1>
